--- a/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>-20,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-33,9%</t>
+          <t>22,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>-43,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,16%</t>
+          <t>32,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>181,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 2,55</t>
+          <t>-53,56; 1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 27,25</t>
+          <t>-11,18; 31,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 4,98</t>
+          <t>-15,19; 27,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 7,38</t>
+          <t>4,27; 47,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 140,59</t>
+          <t>-80,36; 8,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 13,95</t>
+          <t>-37,01; 254,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-40,02; 182,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 934,17</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,95</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>-11,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,6</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,06%</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,9%</t>
+          <t>-31,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,3%</t>
+          <t>-37,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-46,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -3,08</t>
+          <t>-18,84; 0,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -2,36</t>
+          <t>-22,04; -1,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -0,43</t>
+          <t>-30,41; -6,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,14; -11,19</t>
+          <t>-4,98; 15,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,45; -7,36</t>
+          <t>-56,57; 5,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,87; -2,52</t>
+          <t>-58,85; -5,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-66,67; -22,58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 97,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,16</t>
+          <t>-18,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>-15,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-56,98%</t>
+          <t>-16,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-49,05%</t>
+          <t>-67,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,35%</t>
+          <t>-57,21%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-61,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-59,98%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -7,47</t>
+          <t>-27,5; -9,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -4,96</t>
+          <t>-24,81; -6,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -2,89</t>
+          <t>-24,91; -6,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,82; -33,63</t>
+          <t>-26,61; -7,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,55; -23,9</t>
+          <t>-81,61; -40,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,21; -12,78</t>
+          <t>-74,78; -31,23</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-77,51; -33,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-76,36; -30,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,39; -24,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -7,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -14,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-14,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-10,68</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-13,55</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-47,75%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-37,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-44,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-23,86; -8,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-17,32; -4,05</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-21,61; -6,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 9,85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-63,05; -30,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-52,17; -16,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-58,85; -25,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-24,03; 52,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-20,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-43,32%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>181,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-17.88949673650621</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.504315651461018</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.243870072887072</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>19.55560707089841</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4187791790163038</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2807641071115295</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3164107340196806</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.557795001457828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-53,56; 1,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 31,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 27,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 47,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-80,36; 8,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-37,01; 254,9</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-40,02; 182,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 934,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-48.42536437098431</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.09743870954838</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.40464038533546</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1819253661917986</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7917134873688312</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4005981746506734</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3604416750049561</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1628571338245899</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.172974236371234</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.55839145093353</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>29.27913575702365</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>42.59039443640498</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1592371274463774</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.21846895318834</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.091670870943132</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>7.992544833361221</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-16,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-31,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-37,15%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-46,94%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; 0,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,04; -1,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-30,41; -6,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 15,09</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-56,57; 5,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-58,85; -5,48</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,67; -22,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-17,98; 97,5</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.01229695284205</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.00872862227496</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-16.54959004881885</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.847223670206127</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3543463683860888</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3192340866398981</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4724356332969364</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3273130680641648</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-18,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-15,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,79</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-67,5%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-57,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-61,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-59,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-20.83014440361844</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-20.52959245442585</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-30.30171423195315</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.209885006081379</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5942926673768555</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5598975403596448</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6668306703060382</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1257335218859536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-27,5; -9,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-24,81; -6,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,91; -6,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,61; -7,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-81,61; -40,92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-74,78; -31,23</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-77,51; -33,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-76,36; -30,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.5613033289267387</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2063892436109379</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-6.740611724663925</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.77684472344552</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.01652868504225071</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.01366268603140912</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.2230880715397292</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.048487092538812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-15.6836907572798</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-14.25020811360529</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-15.6683840266162</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-14.90138784677359</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6401854570841448</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.558430698132567</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6075681046244252</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5661133869746281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.63689951792588</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.37077511673395</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-24.59190494244644</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-24.13778989290692</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.799191383301215</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7414904642083779</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7676359762326765</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7446185921564392</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-6.18191051545761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-6.06796720928295</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-6.377947717999231</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-5.957915304735938</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.3304028502931018</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.2749925310001968</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.3157235503494282</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.2427280510100088</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-14,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,55</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-47,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-37,49%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-44,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; -8,17</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; -4,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; -6,99</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 9,85</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-63,05; -30,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-52,17; -16,04</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-58,85; -25,54</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-24,03; 52,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-13.52197484887713</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.638966946516693</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-12.8797163281077</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.437621867172417</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4690579645644664</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.342645433121948</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.4211857612529601</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06727533302309073</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-21.38439117556275</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.97621286703798</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-20.77289317951151</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.162126093195383</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6274658416202612</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4958075067784888</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5756787117056598</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.204618204175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.120847277532144</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-3.017166463045962</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-6.352398394252353</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.609818417555614</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.2882380092022329</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1193292337882186</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2212194550933891</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5401752750941725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
